--- a/antibiotics/Hendry_antibiotics.xlsx
+++ b/antibiotics/Hendry_antibiotics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry_lab/lab_protocols/antibiotics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B08DEC0-CEAE-4245-A40F-7D4A6B65106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DB45F4-1870-B641-892E-470CB050F8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="18000" xr2:uid="{69A34748-A38B-E94E-92A0-4359AC18C4D8}"/>
   </bookViews>
